--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyl2e\USU\SoftwareEngineering\dans-frappy-shop\docs\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3E202-458E-45DD-ACD9-E01A0F210C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD14CA-4114-4309-8CA8-DABCB7E8C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="510" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -227,17 +224,17 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3637,13 +3634,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3787,28 +3784,28 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8784,23 +8781,22 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -8841,7 +8837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -8883,7 +8879,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -8925,7 +8921,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -8967,7 +8963,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9009,7 +9005,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -9093,7 +9089,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -9139,7 +9135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -9188,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9252,23 +9248,22 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="13" width="7.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9312,7 +9307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -9355,7 +9350,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9398,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -9441,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9484,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9523,7 +9518,7 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -9570,7 +9565,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -9617,7 +9612,7 @@
       </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -9666,7 +9661,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9730,23 +9725,22 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9787,7 +9781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -9830,7 +9824,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9873,7 +9867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -9916,7 +9910,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9959,7 +9953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10007,7 +10001,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -10053,7 +10047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -10099,7 +10093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -10148,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -10197,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -10216,27 +10210,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10277,7 +10270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10298,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -10317,10 +10310,10 @@
       </c>
       <c r="M2" s="10">
         <f>B2-(SUM(C2:L2))</f>
-        <v>8.25</v>
+        <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -10363,7 +10356,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -10406,7 +10399,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -10421,7 +10414,7 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -10446,10 +10439,10 @@
       </c>
       <c r="M5" s="11">
         <f>B5-(SUM(C5:L5))</f>
-        <v>8.25</v>
+        <v>4.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10497,7 +10490,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -10543,7 +10536,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -10558,7 +10551,7 @@
       </c>
       <c r="E10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="2"/>
@@ -10566,7 +10559,7 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
@@ -10589,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -10607,38 +10600,38 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -10687,7 +10680,7 @@
         <v>6.2172489379008766E-15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -10710,23 +10703,22 @@
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="15" width="7.21875" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10776,7 +10768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10828,7 +10820,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -10880,7 +10872,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -10932,7 +10924,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -10984,7 +10976,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11044,7 +11036,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -11102,7 +11094,7 @@
         <v>2.9230769230769229</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -11160,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -11221,7 +11213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -11282,7 +11274,7 @@
         <v>8.7692307692307736</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDD14CA-4114-4309-8CA8-DABCB7E8C57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7730C1A3-8E4A-480F-BDB8-6CDAF2FB552F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="510" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3643,7 +3643,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3793,19 +3793,19 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10211,7 +10211,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10337,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="M3" s="11">
         <f>B3-(SUM(C3:L3))</f>
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="M5" s="11">
         <f>B5-(SUM(C5:L5))</f>
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
@@ -10612,23 +10612,23 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7730C1A3-8E4A-480F-BDB8-6CDAF2FB552F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739843F8-C2D9-4575-A07F-91A6DB28D160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="510" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3643,7 +3643,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3793,19 +3793,19 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10211,7 +10211,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10294,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -10310,7 +10310,7 @@
       </c>
       <c r="M2" s="10">
         <f>B2-(SUM(C2:L2))</f>
-        <v>6.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="M4" s="10">
         <f>B4-(SUM(C4:L4))</f>
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
@@ -10612,23 +10612,23 @@
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739843F8-C2D9-4575-A07F-91A6DB28D160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9F06C-FF7D-4DDB-ADAD-AE2ADD340687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="510" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3646,16 +3646,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,16 +3796,16 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10211,7 +10211,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10306,11 +10306,11 @@
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M2" s="10">
         <f>B2-(SUM(C2:L2))</f>
-        <v>2.25</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -10349,11 +10349,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="11">
         <f>B3-(SUM(C3:L3))</f>
-        <v>7.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -10392,11 +10392,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="10">
         <f>B4-(SUM(C4:L4))</f>
-        <v>7.25</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -10426,20 +10426,20 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
       </c>
       <c r="M5" s="11">
         <f>B5-(SUM(C5:L5))</f>
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10567,7 +10567,7 @@
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="2"/>
@@ -10575,11 +10575,11 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" s="8">
         <f>SUM(L2:L5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10616,19 +10616,19 @@
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9F06C-FF7D-4DDB-ADAD-AE2ADD340687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9F384-9513-4AB6-B818-D8748E708926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="510" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -3450,42 +3450,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3495,43 +3519,67 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$9:$L$9</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$9:$T$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$9:$L$9</c:f>
+              <c:f>Milestone3.2!$C$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3574,42 +3622,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3619,14 +3691,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$10:$L$10</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$10:$T$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$10:$L$10</c:f>
+              <c:f>Milestone3.2!$C$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3634,28 +3706,52 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,42 +3820,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3769,19 +3889,19 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$11:$L$11</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$11:$T$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$11:$L$11</c:f>
+              <c:f>Milestone3.2!$C$11:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
@@ -3790,22 +3910,46 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3851,42 +3995,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3896,43 +4064,67 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$12:$L$12</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$12:$T$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$12:$L$12</c:f>
+              <c:f>Milestone3.2!$C$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>30.6</c:v>
+                  <c:v>28.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.200000000000003</c:v>
+                  <c:v>26.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.800000000000004</c:v>
+                  <c:v>24.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.400000000000006</c:v>
+                  <c:v>23.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.000000000000007</c:v>
+                  <c:v>21.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.600000000000007</c:v>
+                  <c:v>19.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.200000000000006</c:v>
+                  <c:v>18.333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.800000000000006</c:v>
+                  <c:v>16.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4000000000000061</c:v>
+                  <c:v>14.999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2172489379008766E-15</c:v>
+                  <c:v>13.333333333333325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3333333333333268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3333333333333259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6666666666666592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.5495165674510645E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,31 +4157,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dates</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4022,7 +4189,7 @@
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4058,7 +4225,7 @@
         </c:txPr>
         <c:crossAx val="69504576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -4084,31 +4251,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Points</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4181,36 +4323,6 @@
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Daily</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Hours</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8396,16 +8508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>513753</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>380777</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10208,10 +10320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10223,13 +10335,11 @@
     <col min="5" max="5" width="7.140625" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="8" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10237,46 +10347,69 @@
         <v>0</v>
       </c>
       <c r="C1" s="16">
-        <v>44851</v>
+        <v>44866</v>
       </c>
       <c r="D1" s="16">
-        <v>44852</v>
+        <v>44867</v>
       </c>
       <c r="E1" s="16">
-        <v>44853</v>
+        <v>44868</v>
       </c>
       <c r="F1" s="16">
-        <v>44854</v>
+        <v>44869</v>
       </c>
       <c r="G1" s="16">
-        <v>44855</v>
+        <v>44870</v>
       </c>
       <c r="H1" s="16">
-        <v>44858</v>
+        <v>44871</v>
       </c>
       <c r="I1" s="16">
-        <v>44859</v>
+        <v>44872</v>
       </c>
       <c r="J1" s="16">
-        <v>44860</v>
+        <v>44873</v>
       </c>
       <c r="K1" s="16">
-        <v>44861</v>
+        <v>44874</v>
       </c>
       <c r="L1" s="16">
-        <v>44862</v>
-      </c>
-      <c r="M1" s="9" t="s">
+        <v>44875</v>
+      </c>
+      <c r="M1" s="16">
+        <v>44876</v>
+      </c>
+      <c r="N1" s="16">
+        <v>44877</v>
+      </c>
+      <c r="O1" s="16">
+        <v>44878</v>
+      </c>
+      <c r="P1" s="16">
+        <v>44879</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>44880</v>
+      </c>
+      <c r="R1" s="16">
+        <v>44881</v>
+      </c>
+      <c r="S1" s="16">
+        <v>44882</v>
+      </c>
+      <c r="T1" s="16">
+        <v>44883</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -10291,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -10306,20 +10439,43 @@
         <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>6</v>
-      </c>
-      <c r="M2" s="10">
-        <f>B2-(SUM(C2:L2))</f>
-        <v>-3.75</v>
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <f>B2-(SUM(C2:T2))</f>
+        <v>7.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -10327,42 +10483,65 @@
       <c r="D3" s="7">
         <v>0.25</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>3</v>
-      </c>
-      <c r="M3" s="11">
-        <f>B3-(SUM(C3:L3))</f>
-        <v>4.25</v>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f>B3-(SUM(C3:T3))</f>
+        <v>7.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -10380,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
@@ -10392,20 +10571,43 @@
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <f>B4-(SUM(C4:L4))</f>
-        <v>6.25</v>
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" ref="U3:U5" si="0">B4-(SUM(C4:T4))</f>
+        <v>7.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -10413,36 +10615,60 @@
       <c r="D5" s="7">
         <v>0.25</v>
       </c>
-      <c r="E5" s="7">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <f>B5-(SUM(C5:L5))</f>
-        <v>-0.75</v>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10450,93 +10676,159 @@
         <v>5</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" ref="C8:L8" si="0">C1</f>
-        <v>44851</v>
+        <f t="shared" ref="C8:L8" si="1">C1</f>
+        <v>44866</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>44852</v>
+        <f t="shared" si="1"/>
+        <v>44867</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>44853</v>
+        <f t="shared" si="1"/>
+        <v>44868</v>
       </c>
       <c r="F8" s="16">
-        <f t="shared" si="0"/>
-        <v>44854</v>
+        <f t="shared" si="1"/>
+        <v>44869</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>44855</v>
+        <f t="shared" si="1"/>
+        <v>44870</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="0"/>
-        <v>44858</v>
+        <f t="shared" si="1"/>
+        <v>44871</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" si="0"/>
-        <v>44859</v>
+        <f t="shared" si="1"/>
+        <v>44872</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" si="0"/>
-        <v>44860</v>
+        <f t="shared" si="1"/>
+        <v>44873</v>
       </c>
       <c r="K8" s="16">
-        <f t="shared" si="0"/>
-        <v>44861</v>
+        <f t="shared" si="1"/>
+        <v>44874</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>44862</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>44875</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:Q8" si="2">M1</f>
+        <v>44876</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="2"/>
+        <v>44877</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="2"/>
+        <v>44878</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="2"/>
+        <v>44879</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="2"/>
+        <v>44880</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" ref="R8:U8" si="3">R1</f>
+        <v>44881</v>
+      </c>
+      <c r="S8" s="16">
+        <f t="shared" si="3"/>
+        <v>44882</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="3"/>
+        <v>44883</v>
+      </c>
+      <c r="U8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
-        <f t="shared" ref="C9:L9" si="1">SUM($B$2:$B$5)/10</f>
-        <v>3.4</v>
+        <f>SUM($B$2:$B$5)/18</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" ref="D9:T9" si="4">SUM($B$2:$B$5)/18</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -10546,146 +10838,245 @@
         <v>0</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" ref="D10:K10" si="2">SUM(D2:D5)</f>
+        <f t="shared" ref="D10:K10" si="5">SUM(D2:D5)</f>
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L10" s="8">
         <f>SUM(L2:L5)</f>
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10:Q10" si="6">SUM(M2:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" ref="R10:U10" si="7">SUM(R2:R5)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5">
         <f>B14</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
         <f>B11-C10</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:I11" si="3">C11-D10</f>
-        <v>33</v>
+        <f t="shared" ref="D11:I11" si="8">C11-D10</f>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>27</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>6</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
+        <v>29</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" ref="R11" si="10">Q11-R10</f>
+        <v>29</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" ref="S11" si="11">R11-S10</f>
+        <v>29</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" ref="T11" si="12">S11-T10</f>
+        <v>29</v>
+      </c>
+      <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5">
         <f>B14</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <f>B12-C9</f>
-        <v>30.6</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:I12" si="4">C12-D9</f>
-        <v>27.200000000000003</v>
+        <f t="shared" ref="D12:T12" si="13">C12-D9</f>
+        <v>26.666666666666664</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="4"/>
-        <v>23.800000000000004</v>
+        <f t="shared" si="13"/>
+        <v>24.999999999999996</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="4"/>
-        <v>20.400000000000006</v>
+        <f t="shared" si="13"/>
+        <v>23.333333333333329</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="4"/>
-        <v>17.000000000000007</v>
+        <f t="shared" si="13"/>
+        <v>21.666666666666661</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>13.600000000000007</v>
+        <f t="shared" si="13"/>
+        <v>19.999999999999993</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
-        <v>10.200000000000006</v>
+        <f t="shared" si="13"/>
+        <v>18.333333333333325</v>
       </c>
       <c r="J12" s="1">
-        <f>I12-J9</f>
-        <v>6.800000000000006</v>
+        <f t="shared" si="13"/>
+        <v>16.666666666666657</v>
       </c>
       <c r="K12" s="1">
-        <f>J12-K9</f>
-        <v>3.4000000000000061</v>
+        <f t="shared" si="13"/>
+        <v>14.999999999999991</v>
       </c>
       <c r="L12" s="1">
-        <f>K12-L9</f>
-        <v>6.2172489379008766E-15</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>13.333333333333325</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="13"/>
+        <v>11.666666666666659</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="13"/>
+        <v>8.3333333333333268</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="13"/>
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999929</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333259</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666592</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.5495165674510645E-15</v>
+      </c>
+      <c r="U12" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9F384-9513-4AB6-B818-D8748E708926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F6752-8325-4FEA-883F-DD2EE77B0CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="3795" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -3700,10 +3700,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3898,58 +3898,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10322,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10412,10 +10412,10 @@
         <v>7.5</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -10478,10 +10478,10 @@
         <v>7.5</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -10544,10 +10544,10 @@
         <v>7.5</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="5">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -10598,8 +10598,8 @@
         <v>0</v>
       </c>
       <c r="U4" s="10">
-        <f t="shared" ref="U3:U5" si="0">B4-(SUM(C4:T4))</f>
-        <v>7.25</v>
+        <f t="shared" ref="U4:U5" si="0">B4-(SUM(C4:T4))</f>
+        <v>5.25</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -10610,10 +10610,10 @@
         <v>7.5</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>44880</v>
       </c>
       <c r="R8" s="16">
-        <f t="shared" ref="R8:U8" si="3">R1</f>
+        <f t="shared" ref="R8:T8" si="3">R1</f>
         <v>44881</v>
       </c>
       <c r="S8" s="16">
@@ -10835,11 +10835,11 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7">
         <f>SUM(C2:C5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:K10" si="5">SUM(D2:D5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="5"/>
@@ -10894,7 +10894,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="8">
-        <f t="shared" ref="R10:U10" si="7">SUM(R2:R5)</f>
+        <f t="shared" ref="R10:T10" si="7">SUM(R2:R5)</f>
         <v>0</v>
       </c>
       <c r="S10" s="8">
@@ -10917,75 +10917,75 @@
       </c>
       <c r="C11" s="5">
         <f>B11-C10</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ref="D11:I11" si="8">C11-D10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="9"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ref="R11" si="10">Q11-R10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" ref="S11" si="11">R11-S10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" ref="T11" si="12">S11-T10</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U11" s="5"/>
     </row>

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyl2e\USU\SoftwareEngineering\frappy2\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F6752-8325-4FEA-883F-DD2EE77B0CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267C378-3E33-4B8C-8F40-5F58792760BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3795" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3709,7 +3712,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3907,49 +3910,49 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8893,22 +8896,22 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -8991,7 +8994,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9155,7 +9158,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -9201,7 +9204,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -9247,7 +9250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9360,22 +9363,22 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="13" width="7.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="13" width="7.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -9548,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9630,7 +9633,7 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -9677,7 +9680,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -9724,7 +9727,7 @@
       </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -9773,7 +9776,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9837,22 +9840,22 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -9936,7 +9939,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -10065,7 +10068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -10159,7 +10162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -10205,7 +10208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -10254,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -10303,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -10322,24 +10325,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="17" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="17" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10404,7 +10407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -10553,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -10599,10 +10602,10 @@
       </c>
       <c r="U4" s="10">
         <f t="shared" ref="U4:U5" si="0">B4-(SUM(C4:T4))</f>
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -10665,10 +10668,10 @@
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>4.25</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10749,7 +10752,7 @@
       </c>
       <c r="U8" s="16"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -10828,7 +10831,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -10847,7 +10850,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="5"/>
@@ -10907,7 +10910,7 @@
       </c>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -10929,67 +10932,67 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ref="R11" si="10">Q11-R10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" ref="S11" si="11">R11-S10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" ref="T11" si="12">S11-T10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -11071,7 +11074,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -11094,22 +11097,22 @@
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="15" width="7.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -11367,7 +11370,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>2.9230769230769229</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -11543,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -11665,7 +11668,7 @@
         <v>8.7692307692307736</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F6752-8325-4FEA-883F-DD2EE77B0CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA8EC9-1AB6-4E66-85EB-7399BE92610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3795" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -3709,7 +3709,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3907,49 +3907,49 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10322,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="U4" s="10">
         <f t="shared" ref="U4:U5" si="0">B4-(SUM(C4:T4))</f>
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -10619,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>7.25</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="F10" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="5"/>
@@ -10929,63 +10929,63 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="9"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ref="R11" si="10">Q11-R10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" ref="S11" si="11">R11-S10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" ref="T11" si="12">S11-T10</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="U11" s="5"/>
     </row>

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Fall 2022\CS 3450\Main Project\frappy\docs\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA8EC9-1AB6-4E66-85EB-7399BE92610A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D29C96-407E-42E0-9DF2-3DAD3BCB9EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3721,7 +3721,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3730,7 +3730,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3919,37 +3919,37 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10322,8 +10322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="U2" s="10">
         <f>B2-(SUM(C2:T2))</f>
-        <v>7.25</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="5"/>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="M10" s="8">
         <f t="shared" ref="M10:Q10" si="6">SUM(M2:M5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="6"/>
@@ -10945,47 +10945,47 @@
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P11" s="5">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="9"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ref="R11" si="10">Q11-R10</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S11" s="5">
         <f t="shared" ref="S11" si="11">R11-S10</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" ref="T11" si="12">S11-T10</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U11" s="5"/>
     </row>

--- a/docs/planning/burndown-charts.xlsx
+++ b/docs/planning/burndown-charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyl2e\USU\SoftwareEngineering\dans-frappy-shop\docs\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadmin\Desktop\standups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3E202-458E-45DD-ACD9-E01A0F210C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488D82A6-B3AE-4395-B184-5DC1C38C64BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -227,17 +224,17 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3453,42 +3450,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3498,43 +3519,67 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$9:$L$9</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$9:$T$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$9:$L$9</c:f>
+              <c:f>Milestone3.2!$C$9:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4</c:v>
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3577,42 +3622,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3622,25 +3691,25 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$10:$L$10</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$10:$T$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$10:$L$10</c:f>
+              <c:f>Milestone3.2!$C$10:$T$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3652,12 +3721,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3727,42 +3820,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3772,43 +3889,67 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$11:$L$11</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$11:$T$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$11:$L$11</c:f>
+              <c:f>Milestone3.2!$C$11:$T$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3854,42 +3995,66 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$8:$L$8</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$8:$T$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$8:$L$8</c:f>
+              <c:f>Milestone3.2!$C$8:$T$8</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17-Oct</c:v>
+                  <c:v>1-Nov</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18-Oct</c:v>
+                  <c:v>2-Nov</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19-Oct</c:v>
+                  <c:v>3-Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20-Oct</c:v>
+                  <c:v>4-Nov</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21-Oct</c:v>
+                  <c:v>5-Nov</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24-Oct</c:v>
+                  <c:v>6-Nov</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25-Oct</c:v>
+                  <c:v>7-Nov</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26-Oct</c:v>
+                  <c:v>8-Nov</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27-Oct</c:v>
+                  <c:v>9-Nov</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28-Oct</c:v>
+                  <c:v>10-Nov</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11-Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12-Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13-Nov</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14-Nov</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15-Nov</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16-Nov</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17-Nov</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18-Nov</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3899,43 +4064,67 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Milestone3.2!$B$12:$L$12</c15:sqref>
+                    <c15:sqref>Milestone3.2!$B$12:$T$12</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Milestone3.2!$C$12:$L$12</c:f>
+              <c:f>Milestone3.2!$C$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>30.6</c:v>
+                  <c:v>28.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.200000000000003</c:v>
+                  <c:v>26.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.800000000000004</c:v>
+                  <c:v>24.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.400000000000006</c:v>
+                  <c:v>23.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.000000000000007</c:v>
+                  <c:v>21.666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.600000000000007</c:v>
+                  <c:v>19.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.200000000000006</c:v>
+                  <c:v>18.333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.800000000000006</c:v>
+                  <c:v>16.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4000000000000061</c:v>
+                  <c:v>14.999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2172489379008766E-15</c:v>
+                  <c:v>13.333333333333325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.666666666666659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3333333333333268</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3333333333333259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6666666666666592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.5495165674510645E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3968,31 +4157,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dates</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4025,7 +4189,7 @@
         <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4061,7 +4225,7 @@
         </c:txPr>
         <c:crossAx val="69504576"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -4087,31 +4251,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Points</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4184,36 +4323,6 @@
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Daily</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Hours</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8399,16 +8508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>513753</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>380777</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8784,23 +8893,22 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -8841,7 +8949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -8883,7 +8991,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -8925,7 +9033,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -8967,7 +9075,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9009,7 +9117,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9047,7 +9155,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -9093,7 +9201,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -9139,7 +9247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -9188,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9252,23 +9360,22 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="13" width="7.21875" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9312,7 +9419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -9355,7 +9462,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9398,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -9441,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9484,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -9523,7 +9630,7 @@
       </c>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -9570,7 +9677,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -9617,7 +9724,7 @@
       </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -9666,7 +9773,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -9730,23 +9837,22 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -9787,7 +9893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -9830,7 +9936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -9873,7 +9979,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -9916,7 +10022,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -9959,7 +10065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10007,7 +10113,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -10053,7 +10159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -10099,7 +10205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -10148,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -10197,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -10214,29 +10320,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="12" width="7.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10244,52 +10347,75 @@
         <v>0</v>
       </c>
       <c r="C1" s="16">
-        <v>44851</v>
+        <v>44866</v>
       </c>
       <c r="D1" s="16">
-        <v>44852</v>
+        <v>44867</v>
       </c>
       <c r="E1" s="16">
-        <v>44853</v>
+        <v>44868</v>
       </c>
       <c r="F1" s="16">
-        <v>44854</v>
+        <v>44869</v>
       </c>
       <c r="G1" s="16">
-        <v>44855</v>
+        <v>44870</v>
       </c>
       <c r="H1" s="16">
-        <v>44858</v>
+        <v>44871</v>
       </c>
       <c r="I1" s="16">
-        <v>44859</v>
+        <v>44872</v>
       </c>
       <c r="J1" s="16">
-        <v>44860</v>
+        <v>44873</v>
       </c>
       <c r="K1" s="16">
-        <v>44861</v>
+        <v>44874</v>
       </c>
       <c r="L1" s="16">
-        <v>44862</v>
-      </c>
-      <c r="M1" s="9" t="s">
+        <v>44875</v>
+      </c>
+      <c r="M1" s="16">
+        <v>44876</v>
+      </c>
+      <c r="N1" s="16">
+        <v>44877</v>
+      </c>
+      <c r="O1" s="16">
+        <v>44878</v>
+      </c>
+      <c r="P1" s="16">
+        <v>44879</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>44880</v>
+      </c>
+      <c r="R1" s="16">
+        <v>44881</v>
+      </c>
+      <c r="S1" s="16">
+        <v>44882</v>
+      </c>
+      <c r="T1" s="16">
+        <v>44883</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="5">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C2" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -10307,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
@@ -10315,73 +10441,119 @@
       <c r="L2" s="5">
         <v>0</v>
       </c>
-      <c r="M2" s="10">
-        <f>B2-(SUM(C2:L2))</f>
-        <v>8.25</v>
+      <c r="M2" s="5">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <f>B2-(SUM(C2:T2))</f>
+        <v>3.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <f>B3-(SUM(C3:L3))</f>
-        <v>8.25</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f>B3-(SUM(C3:T3))</f>
+        <v>4.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="5">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -10401,55 +10573,102 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <f>B4-(SUM(C4:L4))</f>
-        <v>8.25</v>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10">
+        <f t="shared" ref="U4:U5" si="0">B4-(SUM(C4:T4))</f>
+        <v>3.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7">
-        <f>B14/4</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D5" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <f>B5-(SUM(C5:L5))</f>
-        <v>8.25</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="0"/>
+        <v>-5.75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -10457,242 +10676,407 @@
         <v>5</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" ref="C8:L8" si="0">C1</f>
-        <v>44851</v>
+        <f t="shared" ref="C8:L8" si="1">C1</f>
+        <v>44866</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>44852</v>
+        <f t="shared" si="1"/>
+        <v>44867</v>
       </c>
       <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>44853</v>
+        <f t="shared" si="1"/>
+        <v>44868</v>
       </c>
       <c r="F8" s="16">
-        <f t="shared" si="0"/>
-        <v>44854</v>
+        <f t="shared" si="1"/>
+        <v>44869</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
-        <v>44855</v>
+        <f t="shared" si="1"/>
+        <v>44870</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="0"/>
-        <v>44858</v>
+        <f t="shared" si="1"/>
+        <v>44871</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" si="0"/>
-        <v>44859</v>
+        <f t="shared" si="1"/>
+        <v>44872</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" si="0"/>
-        <v>44860</v>
+        <f t="shared" si="1"/>
+        <v>44873</v>
       </c>
       <c r="K8" s="16">
-        <f t="shared" si="0"/>
-        <v>44861</v>
+        <f t="shared" si="1"/>
+        <v>44874</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
-        <v>44862</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>44875</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:Q8" si="2">M1</f>
+        <v>44876</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="2"/>
+        <v>44877</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="2"/>
+        <v>44878</v>
+      </c>
+      <c r="P8" s="16">
+        <f t="shared" si="2"/>
+        <v>44879</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="2"/>
+        <v>44880</v>
+      </c>
+      <c r="R8" s="16">
+        <f t="shared" ref="R8:T8" si="3">R1</f>
+        <v>44881</v>
+      </c>
+      <c r="S8" s="16">
+        <f t="shared" si="3"/>
+        <v>44882</v>
+      </c>
+      <c r="T8" s="16">
+        <f t="shared" si="3"/>
+        <v>44883</v>
+      </c>
+      <c r="U8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
-        <f t="shared" ref="C9:L9" si="1">SUM($B$2:$B$5)/10</f>
-        <v>3.4</v>
+        <f>SUM($B$2:$B$5)/18</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" ref="D9:T9" si="4">SUM($B$2:$B$5)/18</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="1"/>
-        <v>3.4</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7">
         <f>SUM(C2:C5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" ref="D10:K10" si="2">SUM(D2:D5)</f>
+        <f t="shared" ref="D10:K10" si="5">SUM(D2:D5)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="8">
         <f>SUM(L2:L5)</f>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" ref="M10:Q10" si="6">SUM(M2:M5)</f>
+        <v>6</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" ref="R10:T10" si="7">SUM(R2:R5)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5">
         <f>B14</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
         <f>B11-C10</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:I11" si="3">C11-D10</f>
-        <v>33</v>
+        <f t="shared" ref="D11:I11" si="8">C11-D10</f>
+        <v>27</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:Q11" si="9">L11-M10</f>
+        <v>13</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" ref="R11" si="10">Q11-R10</f>
+        <v>5</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" ref="S11" si="11">R11-S10</f>
+        <v>5</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" ref="T11" si="12">S11-T10</f>
+        <v>5</v>
+      </c>
+      <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5">
         <f>B14</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <f>B12-C9</f>
-        <v>30.6</v>
+        <v>28.333333333333332</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:I12" si="4">C12-D9</f>
-        <v>27.200000000000003</v>
+        <f t="shared" ref="D12:T12" si="13">C12-D9</f>
+        <v>26.666666666666664</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="4"/>
-        <v>23.800000000000004</v>
+        <f t="shared" si="13"/>
+        <v>24.999999999999996</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="4"/>
-        <v>20.400000000000006</v>
+        <f t="shared" si="13"/>
+        <v>23.333333333333329</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="4"/>
-        <v>17.000000000000007</v>
+        <f t="shared" si="13"/>
+        <v>21.666666666666661</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
-        <v>13.600000000000007</v>
+        <f t="shared" si="13"/>
+        <v>19.999999999999993</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
-        <v>10.200000000000006</v>
+        <f t="shared" si="13"/>
+        <v>18.333333333333325</v>
       </c>
       <c r="J12" s="1">
-        <f>I12-J9</f>
-        <v>6.800000000000006</v>
+        <f t="shared" si="13"/>
+        <v>16.666666666666657</v>
       </c>
       <c r="K12" s="1">
-        <f>J12-K9</f>
-        <v>3.4000000000000061</v>
+        <f t="shared" si="13"/>
+        <v>14.999999999999991</v>
       </c>
       <c r="L12" s="1">
-        <f>K12-L9</f>
-        <v>6.2172489379008766E-15</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>13.333333333333325</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="13"/>
+        <v>11.666666666666659</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999929</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="13"/>
+        <v>8.3333333333333268</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="13"/>
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="13"/>
+        <v>4.9999999999999929</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333259</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="13"/>
+        <v>1.6666666666666592</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.5495165674510645E-15</v>
+      </c>
+      <c r="U12" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10710,23 +11094,22 @@
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="15" width="7.21875" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -10776,7 +11159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -10828,7 +11211,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -10880,7 +11263,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -10932,7 +11315,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -10984,7 +11367,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11044,7 +11427,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -11102,7 +11485,7 @@
         <v>2.9230769230769229</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -11160,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>1</v>
       </c>
@@ -11221,7 +11604,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -11282,7 +11665,7 @@
         <v>8.7692307692307736</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
